--- a/HJA_scripts/08_reference_sequences_datasets/biodiversity_site_info_vars_descriptions_20200214.xlsx
+++ b/HJA_scripts/08_reference_sequences_datasets/biodiversity_site_info_vars_descriptions_20200214.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Negorashi2011/Dropbox/Working_docs/Luo_Mingjie_Oregon/HJA_scripts/8_reference_sequences_datasets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Negorashi2011/Dropbox/Working_docs/Luo_Mingjie_Oregon/HJA_analyses_Kelpie/HJA_scripts/08_reference_sequences_datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A348A36-0808-B54F-8388-F8A43C782043}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8944DC0-5A00-5F48-B95E-B9DA9A5C4208}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{D4C51171-EAF2-4C8A-89FC-AE2909FE3CE0}"/>
+    <workbookView xWindow="0" yWindow="2380" windowWidth="25680" windowHeight="18040" xr2:uid="{D4C51171-EAF2-4C8A-89FC-AE2909FE3CE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$24</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="51">
   <si>
     <t>SiteName</t>
   </si>
@@ -180,6 +180,15 @@
   </si>
   <si>
     <t>binary, in the hja = 1, in surrounding Willamette National Forest = 0</t>
+  </si>
+  <si>
+    <t>include</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -810,11 +819,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7B304AA-67DF-4FDC-AF9A-032761E91DA7}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -823,201 +832,346 @@
     <col min="2" max="2" width="105.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>23</v>
       </c>
       <c r="B1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>47</v>
       </c>
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B24" xr:uid="{FA29F92E-464D-894B-BEEF-630F05BC286A}"/>
+  <autoFilter ref="A1:C24" xr:uid="{C2594424-77A9-184B-ACFC-B0E6D2FEDA35}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>